--- a/BHF_Dashboards/BHF_DSC_TRE_External_Dashboard/Data/Static text.xlsx
+++ b/BHF_Dashboards/BHF_DSC_TRE_External_Dashboard/Data/Static text.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LarsMurdock\Documents\Repo\BHF_DSC_HDS\BHF_Dashboards\BHF_DSC_TRE_External_Dashboard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4892E579-1A32-428A-8F25-7197070C3C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24250EC3-48D8-464C-AD9A-ABB4712CCE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Landing" sheetId="1" r:id="rId1"/>
+    <sheet name="Methodology_DD_Header1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,16 +26,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">Welcome to the BHF Data Science Centre dashboard.
-The information in this dashboard describes the datasets currently available to us in the TREs for England, Scotland and Wales respectively. This covers a substantial number of sets and proportion of the population, so we hope this dashboard is particularly useful to those considering a research project in collaboration with us. Please note some sets are not yet accessible to us, so this will not be as comprehensive as the collections presented by each nation on their websites/dashboards. We will aim to update this fairly regularly as new datasets are incorporated.
+    <t>The data dictionary provided in this dashboard are based on content made available by the data providers for each nation. 
+For England and Scotland these are static documents. For Wales the content was collated across pages available on the SAIL website.</t>
+  </si>
+  <si>
+    <t>Welcome to the BHF Data Science Centre dashboard.
+The information in this dashboard describes the datasets currently available to us in the TREs for England, Scotland and Wales respectively. This covers a substantial number of sets and proportion of the population, so we hope this dashboard is particularly useful to those considering a research project in collaboration with us. 
+Please note some sets are not yet accessible to us, so this will not be as comprehensive as the collections presented by each nation on their websites/dashboards. We will aim to update this fairly regularly as new datasets are incorporated.
 In terms of fields and their completeness please be aware:
 - some fields may show low completeness in an individual dataset, but a much more complete version may be available by deriving from multiple datasets. Common examples might be ethnicity fields, or comorbidity
 - the completeness we present is simply based on whether a cell is populated or not. For some fields they have been populated with a label such as 'missing', or 'not available', or a coded version of this.
 - some fields we would not expect to be 100% complete. For example a dataset may refer to group of patients receiving treatment X. This might include showing the date if this treatment was concluded early. However if the treatment did not conclude early, there would be no need for this field to be populated. 
-You can reach us at (email address) if you have any further questions, and if you'd like to provide feedback on the dashboard please visit the linked tab.																					
-																					</t>
+You can reach us at (email address) if you have any further questions, and if you'd like to provide feedback on the dashboard please visit the linked tab.</t>
   </si>
 </sst>
 </file>
@@ -357,9 +362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -368,6 +371,29 @@
   <sheetData>
     <row r="1" spans="1:1" ht="280.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFE9EEE-F79A-40F9-BF09-A3C58873CC76}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="127.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
